--- a/ConsoleApp1/Sample/4-mst_file.xlsx
+++ b/ConsoleApp1/Sample/4-mst_file.xlsx
@@ -25,6 +25,24 @@
     <x:t>Line Matches</x:t>
   </x:si>
   <x:si>
+    <x:t>https://example.com/file9/(93%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file10/(80%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file10/(78%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file7/(70%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file8/(75%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file9/(57%)</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://example.com/file2/(73%)</x:t>
   </x:si>
   <x:si>
@@ -37,34 +55,16 @@
     <x:t>https://example.com/file2/(36%)</x:t>
   </x:si>
   <x:si>
+    <x:t>https://example.com/file5/(49%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file6/(60%)</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://example.com/file4/(32%)</x:t>
   </x:si>
   <x:si>
     <x:t>https://example.com/file5/(67%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file5/(49%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file6/(60%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file9/(93%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file10/(80%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file10/(78%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file7/(70%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file8/(75%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file9/(57%)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -459,7 +459,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>167</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -470,7 +470,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -481,7 +481,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -492,7 +492,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -503,7 +503,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -514,7 +514,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -525,7 +525,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -792,9 +792,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81BE3739-6FD7-420B-BB42-C4938D8C69F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{611F8EE6-A4AB-4EAA-AB49-E0C6CC5CB70E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F72EE-AD44-41AB-9572-84B11A84A7AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAA716D8-E69B-48FE-81EF-6111B0E389B2}"/>
 </file>